--- a/torquecurves.xlsx
+++ b/torquecurves.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Journey\Documents\MATLAB\Combined LapSim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Journey\Documents\GitHub\LapSimCombined\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -738,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260580896"/>
-        <c:axId val="260581288"/>
+        <c:axId val="417135160"/>
+        <c:axId val="417135552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260580896"/>
+        <c:axId val="417135160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,13 +772,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260581288"/>
+        <c:crossAx val="417135552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260581288"/>
+        <c:axId val="417135552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260580896"/>
+        <c:crossAx val="417135160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,11 +1265,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261930888"/>
-        <c:axId val="261933240"/>
+        <c:axId val="372104792"/>
+        <c:axId val="372108320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261930888"/>
+        <c:axId val="372104792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,13 +1299,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261933240"/>
+        <c:crossAx val="372108320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261933240"/>
+        <c:axId val="372108320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261930888"/>
+        <c:crossAx val="372104792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2056,11 +2056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261931672"/>
-        <c:axId val="261935200"/>
+        <c:axId val="372105576"/>
+        <c:axId val="372107144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261931672"/>
+        <c:axId val="372105576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,13 +2090,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261935200"/>
+        <c:crossAx val="372107144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261935200"/>
+        <c:axId val="372107144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261931672"/>
+        <c:crossAx val="372105576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2859,11 +2859,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261935592"/>
-        <c:axId val="261936376"/>
+        <c:axId val="372100088"/>
+        <c:axId val="372103616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261935592"/>
+        <c:axId val="372100088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,13 +2893,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261936376"/>
+        <c:crossAx val="372103616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261936376"/>
+        <c:axId val="372103616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,7 +2911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261935592"/>
+        <c:crossAx val="372100088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3746,11 +3746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261937160"/>
-        <c:axId val="336684472"/>
+        <c:axId val="372104008"/>
+        <c:axId val="372100872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261937160"/>
+        <c:axId val="372104008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,13 +3780,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336684472"/>
+        <c:crossAx val="372100872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336684472"/>
+        <c:axId val="372100872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261937160"/>
+        <c:crossAx val="372104008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4273,11 +4273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336683296"/>
-        <c:axId val="336684864"/>
+        <c:axId val="372101656"/>
+        <c:axId val="372107536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336683296"/>
+        <c:axId val="372101656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,13 +4307,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336684864"/>
+        <c:crossAx val="372107536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336684864"/>
+        <c:axId val="372107536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4325,7 +4325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336683296"/>
+        <c:crossAx val="372101656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5328,11 +5328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337942104"/>
-        <c:axId val="337938184"/>
+        <c:axId val="372108712"/>
+        <c:axId val="372096952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337942104"/>
+        <c:axId val="372108712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,13 +5362,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337938184"/>
+        <c:crossAx val="372096952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337938184"/>
+        <c:axId val="372096952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,7 +5380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337942104"/>
+        <c:crossAx val="372108712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6287,11 +6287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337941712"/>
-        <c:axId val="337937400"/>
+        <c:axId val="372112240"/>
+        <c:axId val="372109104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337941712"/>
+        <c:axId val="372112240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6321,13 +6321,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337937400"/>
+        <c:crossAx val="372109104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337937400"/>
+        <c:axId val="372109104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6339,7 +6339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337941712"/>
+        <c:crossAx val="372112240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7210,11 +7210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337940928"/>
-        <c:axId val="337941320"/>
+        <c:axId val="372109888"/>
+        <c:axId val="372110280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337940928"/>
+        <c:axId val="372109888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7244,13 +7244,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337941320"/>
+        <c:crossAx val="372110280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337941320"/>
+        <c:axId val="372110280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7262,7 +7262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337940928"/>
+        <c:crossAx val="372109888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7941,11 +7941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337939752"/>
-        <c:axId val="337937792"/>
+        <c:axId val="372111456"/>
+        <c:axId val="372111848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337939752"/>
+        <c:axId val="372111456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,13 +7975,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337937792"/>
+        <c:crossAx val="372111848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337937792"/>
+        <c:axId val="372111848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7993,7 +7993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337939752"/>
+        <c:crossAx val="372111456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9068,11 +9068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337940144"/>
-        <c:axId val="337935048"/>
+        <c:axId val="429063168"/>
+        <c:axId val="429063560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337940144"/>
+        <c:axId val="429063168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9102,13 +9102,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337935048"/>
+        <c:crossAx val="429063560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337935048"/>
+        <c:axId val="429063560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9120,7 +9120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337940144"/>
+        <c:crossAx val="429063168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9727,11 +9727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336682904"/>
-        <c:axId val="336683688"/>
+        <c:axId val="417132808"/>
+        <c:axId val="417123008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336682904"/>
+        <c:axId val="417132808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9761,13 +9761,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336683688"/>
+        <c:crossAx val="417123008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336683688"/>
+        <c:axId val="417123008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9779,7 +9779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336682904"/>
+        <c:crossAx val="417132808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10421,11 +10421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337937008"/>
-        <c:axId val="337940536"/>
+        <c:axId val="429068656"/>
+        <c:axId val="429063952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337937008"/>
+        <c:axId val="429068656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10455,13 +10455,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337940536"/>
+        <c:crossAx val="429063952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337940536"/>
+        <c:axId val="429063952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10473,7 +10473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337937008"/>
+        <c:crossAx val="429068656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11416,11 +11416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337935832"/>
-        <c:axId val="337936224"/>
+        <c:axId val="429069048"/>
+        <c:axId val="429069440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337935832"/>
+        <c:axId val="429069048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11450,13 +11450,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337936224"/>
+        <c:crossAx val="429069440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337936224"/>
+        <c:axId val="429069440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11468,7 +11468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337935832"/>
+        <c:crossAx val="429069048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12471,11 +12471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="338700200"/>
-        <c:axId val="338698632"/>
+        <c:axId val="429072968"/>
+        <c:axId val="429071792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="338700200"/>
+        <c:axId val="429072968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12505,13 +12505,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338698632"/>
+        <c:crossAx val="429071792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338698632"/>
+        <c:axId val="429071792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12523,7 +12523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338700200"/>
+        <c:crossAx val="429072968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14018,11 +14018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="338692360"/>
-        <c:axId val="338690792"/>
+        <c:axId val="429066304"/>
+        <c:axId val="429066696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="338692360"/>
+        <c:axId val="429066304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14052,13 +14052,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338690792"/>
+        <c:crossAx val="429066696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338690792"/>
+        <c:axId val="429066696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14070,7 +14070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338692360"/>
+        <c:crossAx val="429066304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14171,7 +14171,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>600</c:v>
@@ -14558,7 +14558,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>2.0053999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.3754</c:v>
@@ -14956,7 +14956,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>600</c:v>
@@ -15343,7 +15343,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>0.1909177456207159</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.27137090632140137</c:v>
@@ -15733,11 +15733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="338696672"/>
-        <c:axId val="338701768"/>
+        <c:axId val="429065912"/>
+        <c:axId val="429068264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="338696672"/>
+        <c:axId val="429065912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15768,13 +15768,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338701768"/>
+        <c:crossAx val="429068264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338701768"/>
+        <c:axId val="429068264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15786,7 +15786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338696672"/>
+        <c:crossAx val="429065912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16381,11 +16381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336682120"/>
-        <c:axId val="336684080"/>
+        <c:axId val="417128104"/>
+        <c:axId val="298693840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336682120"/>
+        <c:axId val="417128104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16415,13 +16415,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336684080"/>
+        <c:crossAx val="298693840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336684080"/>
+        <c:axId val="298693840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16433,7 +16433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336682120"/>
+        <c:crossAx val="417128104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17460,11 +17460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336686432"/>
-        <c:axId val="336680160"/>
+        <c:axId val="298696192"/>
+        <c:axId val="298697760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336686432"/>
+        <c:axId val="298696192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17494,13 +17494,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336680160"/>
+        <c:crossAx val="298697760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336680160"/>
+        <c:axId val="298697760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17512,7 +17512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336686432"/>
+        <c:crossAx val="298696192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18923,11 +18923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336680552"/>
-        <c:axId val="336680944"/>
+        <c:axId val="372106360"/>
+        <c:axId val="372097344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336680552"/>
+        <c:axId val="372106360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18957,13 +18957,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336680944"/>
+        <c:crossAx val="372097344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336680944"/>
+        <c:axId val="372097344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18975,7 +18975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336680552"/>
+        <c:crossAx val="372106360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19654,11 +19654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336682512"/>
-        <c:axId val="336685648"/>
+        <c:axId val="372098128"/>
+        <c:axId val="372102048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336682512"/>
+        <c:axId val="372098128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19688,13 +19688,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336685648"/>
+        <c:crossAx val="372102048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336685648"/>
+        <c:axId val="372102048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19706,7 +19706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336682512"/>
+        <c:crossAx val="372098128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20937,11 +20937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261932456"/>
-        <c:axId val="261932848"/>
+        <c:axId val="372100480"/>
+        <c:axId val="372098520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261932456"/>
+        <c:axId val="372100480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20971,13 +20971,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261932848"/>
+        <c:crossAx val="372098520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261932848"/>
+        <c:axId val="372098520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20989,7 +20989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261932456"/>
+        <c:crossAx val="372100480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21896,11 +21896,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261935984"/>
-        <c:axId val="261933632"/>
+        <c:axId val="372101264"/>
+        <c:axId val="372099304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261935984"/>
+        <c:axId val="372101264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21930,13 +21930,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261933632"/>
+        <c:crossAx val="372099304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261933632"/>
+        <c:axId val="372099304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21948,7 +21948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261935984"/>
+        <c:crossAx val="372101264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22627,11 +22627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261937944"/>
-        <c:axId val="261938336"/>
+        <c:axId val="372106752"/>
+        <c:axId val="372099696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261937944"/>
+        <c:axId val="372106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22661,13 +22661,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261938336"/>
+        <c:crossAx val="372099696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261938336"/>
+        <c:axId val="372099696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22679,7 +22679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261937944"/>
+        <c:crossAx val="372106752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -38350,7 +38350,7 @@
   <dimension ref="A1:X147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38388,14 +38388,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.0053999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f>(C4*E4)/5252</f>
-        <v>0.1909177456207159</v>
+        <f>0.001</f>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">

--- a/torquecurves.xlsx
+++ b/torquecurves.xlsx
@@ -738,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="417135160"/>
-        <c:axId val="417135552"/>
+        <c:axId val="362014512"/>
+        <c:axId val="362015688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="417135160"/>
+        <c:axId val="362014512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,13 +772,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417135552"/>
+        <c:crossAx val="362015688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="417135552"/>
+        <c:axId val="362015688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417135160"/>
+        <c:crossAx val="362014512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,11 +1265,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372104792"/>
-        <c:axId val="372108320"/>
+        <c:axId val="121126272"/>
+        <c:axId val="121126664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372104792"/>
+        <c:axId val="121126272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,13 +1299,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372108320"/>
+        <c:crossAx val="121126664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372108320"/>
+        <c:axId val="121126664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372104792"/>
+        <c:crossAx val="121126272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2056,11 +2056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372105576"/>
-        <c:axId val="372107144"/>
+        <c:axId val="121125880"/>
+        <c:axId val="121125488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372105576"/>
+        <c:axId val="121125880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,13 +2090,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372107144"/>
+        <c:crossAx val="121125488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372107144"/>
+        <c:axId val="121125488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372105576"/>
+        <c:crossAx val="121125880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2859,11 +2859,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372100088"/>
-        <c:axId val="372103616"/>
+        <c:axId val="362017256"/>
+        <c:axId val="121213872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372100088"/>
+        <c:axId val="362017256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,13 +2893,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372103616"/>
+        <c:crossAx val="121213872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372103616"/>
+        <c:axId val="121213872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,7 +2911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372100088"/>
+        <c:crossAx val="362017256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3746,11 +3746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372104008"/>
-        <c:axId val="372100872"/>
+        <c:axId val="364391128"/>
+        <c:axId val="364389168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372104008"/>
+        <c:axId val="364391128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,13 +3780,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372100872"/>
+        <c:crossAx val="364389168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372100872"/>
+        <c:axId val="364389168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372104008"/>
+        <c:crossAx val="364391128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4273,11 +4273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372101656"/>
-        <c:axId val="372107536"/>
+        <c:axId val="364390344"/>
+        <c:axId val="364391520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372101656"/>
+        <c:axId val="364390344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,13 +4307,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372107536"/>
+        <c:crossAx val="364391520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372107536"/>
+        <c:axId val="364391520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4325,7 +4325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372101656"/>
+        <c:crossAx val="364390344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5328,11 +5328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372108712"/>
-        <c:axId val="372096952"/>
+        <c:axId val="364389560"/>
+        <c:axId val="364389952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372108712"/>
+        <c:axId val="364389560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,13 +5362,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372096952"/>
+        <c:crossAx val="364389952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372096952"/>
+        <c:axId val="364389952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,7 +5380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372108712"/>
+        <c:crossAx val="364389560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6287,11 +6287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372112240"/>
-        <c:axId val="372109104"/>
+        <c:axId val="4319808"/>
+        <c:axId val="4320592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372112240"/>
+        <c:axId val="4319808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6321,13 +6321,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372109104"/>
+        <c:crossAx val="4320592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372109104"/>
+        <c:axId val="4320592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6339,7 +6339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372112240"/>
+        <c:crossAx val="4319808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7210,11 +7210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372109888"/>
-        <c:axId val="372110280"/>
+        <c:axId val="4321768"/>
+        <c:axId val="4321376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372109888"/>
+        <c:axId val="4321768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7244,13 +7244,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372110280"/>
+        <c:crossAx val="4321376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372110280"/>
+        <c:axId val="4321376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7262,7 +7262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372109888"/>
+        <c:crossAx val="4321768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7941,11 +7941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372111456"/>
-        <c:axId val="372111848"/>
+        <c:axId val="4320200"/>
+        <c:axId val="4318632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372111456"/>
+        <c:axId val="4320200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,13 +7975,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372111848"/>
+        <c:crossAx val="4318632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372111848"/>
+        <c:axId val="4318632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7993,7 +7993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372111456"/>
+        <c:crossAx val="4320200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9068,11 +9068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429063168"/>
-        <c:axId val="429063560"/>
+        <c:axId val="4310008"/>
+        <c:axId val="4317848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429063168"/>
+        <c:axId val="4310008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9102,13 +9102,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429063560"/>
+        <c:crossAx val="4317848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429063560"/>
+        <c:axId val="4317848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9120,7 +9120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429063168"/>
+        <c:crossAx val="4310008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9727,11 +9727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="417132808"/>
-        <c:axId val="417123008"/>
+        <c:axId val="362018824"/>
+        <c:axId val="362013336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="417132808"/>
+        <c:axId val="362018824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9761,13 +9761,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417123008"/>
+        <c:crossAx val="362013336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="417123008"/>
+        <c:axId val="362013336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9779,7 +9779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417132808"/>
+        <c:crossAx val="362018824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10421,11 +10421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429068656"/>
-        <c:axId val="429063952"/>
+        <c:axId val="4310400"/>
+        <c:axId val="4315104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429068656"/>
+        <c:axId val="4310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10455,13 +10455,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429063952"/>
+        <c:crossAx val="4315104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429063952"/>
+        <c:axId val="4315104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10473,7 +10473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429068656"/>
+        <c:crossAx val="4310400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11416,11 +11416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429069048"/>
-        <c:axId val="429069440"/>
+        <c:axId val="4315496"/>
+        <c:axId val="4312360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429069048"/>
+        <c:axId val="4315496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11450,13 +11450,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429069440"/>
+        <c:crossAx val="4312360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429069440"/>
+        <c:axId val="4312360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11468,7 +11468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429069048"/>
+        <c:crossAx val="4315496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12471,11 +12471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429072968"/>
-        <c:axId val="429071792"/>
+        <c:axId val="4313928"/>
+        <c:axId val="4315888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429072968"/>
+        <c:axId val="4313928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12505,13 +12505,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429071792"/>
+        <c:crossAx val="4315888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429071792"/>
+        <c:axId val="4315888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12523,7 +12523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429072968"/>
+        <c:crossAx val="4313928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14018,11 +14018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429066304"/>
-        <c:axId val="429066696"/>
+        <c:axId val="4306088"/>
+        <c:axId val="4314320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429066304"/>
+        <c:axId val="4306088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14052,13 +14052,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429066696"/>
+        <c:crossAx val="4314320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429066696"/>
+        <c:axId val="4314320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14070,7 +14070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429066304"/>
+        <c:crossAx val="4306088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15343,7 +15343,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.27137090632140137</c:v>
@@ -15733,11 +15733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429065912"/>
-        <c:axId val="429068264"/>
+        <c:axId val="4316280"/>
+        <c:axId val="4308832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429065912"/>
+        <c:axId val="4316280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15768,13 +15768,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429068264"/>
+        <c:crossAx val="4308832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429068264"/>
+        <c:axId val="4308832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15786,7 +15786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429065912"/>
+        <c:crossAx val="4316280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16381,11 +16381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="417128104"/>
-        <c:axId val="298693840"/>
+        <c:axId val="362012944"/>
+        <c:axId val="362016080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="417128104"/>
+        <c:axId val="362012944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16415,13 +16415,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298693840"/>
+        <c:crossAx val="362016080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298693840"/>
+        <c:axId val="362016080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16433,7 +16433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417128104"/>
+        <c:crossAx val="362012944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17460,11 +17460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298696192"/>
-        <c:axId val="298697760"/>
+        <c:axId val="362013728"/>
+        <c:axId val="362016864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298696192"/>
+        <c:axId val="362013728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17494,13 +17494,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298697760"/>
+        <c:crossAx val="362016864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298697760"/>
+        <c:axId val="362016864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17512,7 +17512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298696192"/>
+        <c:crossAx val="362013728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18923,11 +18923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372106360"/>
-        <c:axId val="372097344"/>
+        <c:axId val="362018040"/>
+        <c:axId val="362026272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372106360"/>
+        <c:axId val="362018040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18957,13 +18957,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372097344"/>
+        <c:crossAx val="362026272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372097344"/>
+        <c:axId val="362026272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18975,7 +18975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372106360"/>
+        <c:crossAx val="362018040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19654,11 +19654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372098128"/>
-        <c:axId val="372102048"/>
+        <c:axId val="362026664"/>
+        <c:axId val="362027840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372098128"/>
+        <c:axId val="362026664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19688,13 +19688,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372102048"/>
+        <c:crossAx val="362027840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372102048"/>
+        <c:axId val="362027840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19706,7 +19706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372098128"/>
+        <c:crossAx val="362026664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20937,11 +20937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372100480"/>
-        <c:axId val="372098520"/>
+        <c:axId val="362027448"/>
+        <c:axId val="362028232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372100480"/>
+        <c:axId val="362027448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20971,13 +20971,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372098520"/>
+        <c:crossAx val="362028232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372098520"/>
+        <c:axId val="362028232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20989,7 +20989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372100480"/>
+        <c:crossAx val="362027448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21896,11 +21896,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372101264"/>
-        <c:axId val="372099304"/>
+        <c:axId val="291187168"/>
+        <c:axId val="291186384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372101264"/>
+        <c:axId val="291187168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21930,13 +21930,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372099304"/>
+        <c:crossAx val="291186384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372099304"/>
+        <c:axId val="291186384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21948,7 +21948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372101264"/>
+        <c:crossAx val="291187168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22627,11 +22627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372106752"/>
-        <c:axId val="372099696"/>
+        <c:axId val="291184424"/>
+        <c:axId val="291184816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372106752"/>
+        <c:axId val="291184424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22661,13 +22661,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372099696"/>
+        <c:crossAx val="291184816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372099696"/>
+        <c:axId val="291184816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22679,7 +22679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372106752"/>
+        <c:crossAx val="291184424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -38350,7 +38350,7 @@
   <dimension ref="A1:X147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38394,8 +38394,8 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f>0.001</f>
-        <v>1E-3</v>
+        <f>0.1</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">

--- a/torquecurves.xlsx
+++ b/torquecurves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Rennteam Uni Stuttgart" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,14 @@
     <sheet name="Global Formula Racing(OREGON)" sheetId="25" r:id="rId21"/>
     <sheet name="Formula Racing Cologne" sheetId="26" r:id="rId22"/>
     <sheet name="Delft" sheetId="27" r:id="rId23"/>
+    <sheet name="CalPolySLO" sheetId="28" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="15">
   <si>
     <t>RPM</t>
   </si>
@@ -83,6 +84,9 @@
   </si>
   <si>
     <t>CBR600</t>
+  </si>
+  <si>
+    <t>YFZ450</t>
   </si>
 </sst>
 </file>
@@ -143,7 +147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral 2" xfId="2"/>
@@ -738,11 +743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362014512"/>
-        <c:axId val="362015688"/>
+        <c:axId val="4917440"/>
+        <c:axId val="4911560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362014512"/>
+        <c:axId val="4917440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,13 +777,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362015688"/>
+        <c:crossAx val="4911560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362015688"/>
+        <c:axId val="4911560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362014512"/>
+        <c:crossAx val="4917440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,11 +1270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121126272"/>
-        <c:axId val="121126664"/>
+        <c:axId val="4918616"/>
+        <c:axId val="4918224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121126272"/>
+        <c:axId val="4918616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,13 +1304,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121126664"/>
+        <c:crossAx val="4918224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121126664"/>
+        <c:axId val="4918224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121126272"/>
+        <c:crossAx val="4918616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2056,11 +2061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121125880"/>
-        <c:axId val="121125488"/>
+        <c:axId val="4920184"/>
+        <c:axId val="4919400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121125880"/>
+        <c:axId val="4920184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,13 +2095,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121125488"/>
+        <c:crossAx val="4919400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121125488"/>
+        <c:axId val="4919400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121125880"/>
+        <c:crossAx val="4920184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2859,11 +2864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362017256"/>
-        <c:axId val="121213872"/>
+        <c:axId val="339553144"/>
+        <c:axId val="339552360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362017256"/>
+        <c:axId val="339553144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,13 +2898,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121213872"/>
+        <c:crossAx val="339552360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121213872"/>
+        <c:axId val="339552360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,7 +2916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362017256"/>
+        <c:crossAx val="339553144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3746,11 +3751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="364391128"/>
-        <c:axId val="364389168"/>
+        <c:axId val="339550792"/>
+        <c:axId val="339551968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="364391128"/>
+        <c:axId val="339550792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,13 +3785,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364389168"/>
+        <c:crossAx val="339551968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364389168"/>
+        <c:axId val="339551968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364391128"/>
+        <c:crossAx val="339550792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4273,11 +4278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="364390344"/>
-        <c:axId val="364391520"/>
+        <c:axId val="339551184"/>
+        <c:axId val="339551576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="364390344"/>
+        <c:axId val="339551184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,13 +4312,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364391520"/>
+        <c:crossAx val="339551576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364391520"/>
+        <c:axId val="339551576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4325,7 +4330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364390344"/>
+        <c:crossAx val="339551184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5328,11 +5333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="364389560"/>
-        <c:axId val="364389952"/>
+        <c:axId val="339546480"/>
+        <c:axId val="339540992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="364389560"/>
+        <c:axId val="339546480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,13 +5367,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364389952"/>
+        <c:crossAx val="339540992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364389952"/>
+        <c:axId val="339540992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,7 +5385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364389560"/>
+        <c:crossAx val="339546480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6287,11 +6292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4319808"/>
-        <c:axId val="4320592"/>
+        <c:axId val="339541384"/>
+        <c:axId val="339547656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4319808"/>
+        <c:axId val="339541384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6321,13 +6326,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4320592"/>
+        <c:crossAx val="339547656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4320592"/>
+        <c:axId val="339547656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6339,7 +6344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4319808"/>
+        <c:crossAx val="339541384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7210,11 +7215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4321768"/>
-        <c:axId val="4321376"/>
+        <c:axId val="339542168"/>
+        <c:axId val="339542952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4321768"/>
+        <c:axId val="339542168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7244,13 +7249,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4321376"/>
+        <c:crossAx val="339542952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4321376"/>
+        <c:axId val="339542952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7262,7 +7267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4321768"/>
+        <c:crossAx val="339542168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7941,11 +7946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4320200"/>
-        <c:axId val="4318632"/>
+        <c:axId val="339548440"/>
+        <c:axId val="339537856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4320200"/>
+        <c:axId val="339548440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,13 +7980,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4318632"/>
+        <c:crossAx val="339537856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4318632"/>
+        <c:axId val="339537856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7993,7 +7998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4320200"/>
+        <c:crossAx val="339548440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9068,11 +9073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4310008"/>
-        <c:axId val="4317848"/>
+        <c:axId val="339543736"/>
+        <c:axId val="339544128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4310008"/>
+        <c:axId val="339543736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9102,13 +9107,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4317848"/>
+        <c:crossAx val="339544128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4317848"/>
+        <c:axId val="339544128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9120,7 +9125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4310008"/>
+        <c:crossAx val="339543736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9727,11 +9732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362018824"/>
-        <c:axId val="362013336"/>
+        <c:axId val="4915872"/>
+        <c:axId val="4907640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362018824"/>
+        <c:axId val="4915872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9761,13 +9766,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362013336"/>
+        <c:crossAx val="4907640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362013336"/>
+        <c:axId val="4907640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9779,7 +9784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362018824"/>
+        <c:crossAx val="4915872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10421,11 +10426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4310400"/>
-        <c:axId val="4315104"/>
+        <c:axId val="339549224"/>
+        <c:axId val="339544520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4310400"/>
+        <c:axId val="339549224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10455,13 +10460,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4315104"/>
+        <c:crossAx val="339544520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4315104"/>
+        <c:axId val="339544520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10473,7 +10478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4310400"/>
+        <c:crossAx val="339549224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11416,11 +11421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4315496"/>
-        <c:axId val="4312360"/>
+        <c:axId val="339545304"/>
+        <c:axId val="339549616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4315496"/>
+        <c:axId val="339545304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11450,13 +11455,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4312360"/>
+        <c:crossAx val="339549616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4312360"/>
+        <c:axId val="339549616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11468,7 +11473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4315496"/>
+        <c:crossAx val="339545304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12471,11 +12476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4313928"/>
-        <c:axId val="4315888"/>
+        <c:axId val="339550008"/>
+        <c:axId val="339547264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4313928"/>
+        <c:axId val="339550008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12505,13 +12510,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4315888"/>
+        <c:crossAx val="339547264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4315888"/>
+        <c:axId val="339547264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12523,7 +12528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4313928"/>
+        <c:crossAx val="339550008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12624,7 +12629,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3742</c:v>
@@ -12969,7 +12974,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.660322376708102</c:v>
@@ -13325,7 +13330,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3742</c:v>
@@ -13670,7 +13675,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>0.19040365575019041</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.295302043724623</c:v>
@@ -14018,11 +14023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4306088"/>
-        <c:axId val="4314320"/>
+        <c:axId val="262732448"/>
+        <c:axId val="262732840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4306088"/>
+        <c:axId val="262732448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14052,13 +14057,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4314320"/>
+        <c:crossAx val="262732840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4314320"/>
+        <c:axId val="262732840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14070,7 +14075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4306088"/>
+        <c:crossAx val="262732448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14558,7 +14563,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.3754</c:v>
@@ -15733,11 +15738,586 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4316280"/>
-        <c:axId val="4308832"/>
+        <c:axId val="122287880"/>
+        <c:axId val="122289840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4316280"/>
+        <c:axId val="122287880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122289840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="122289840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122287880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18824939635588719"/>
+          <c:y val="0.27338855892797265"/>
+          <c:w val="0.13978564317761141"/>
+          <c:h val="0.16198293012113302"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <a:stretch>
+        <a:fillRect/>
+      </a:stretch>
+    </a:blipFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cal Poly SLO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30399483168997338"/>
+          <c:y val="4.0079064421338073E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TQ</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalPolySLO!$C$4:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4008.5714285714284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4261.2857142857147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4509.5183673469392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4760.9047619047615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5013.6190476190477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5263.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5513.2380952380954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5763.0476190476193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6015.7619047619046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6265.8204081632648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6517.1238095238095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7018.1537414965987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7267.7972789115638</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7519.8476190476194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7770.6530612244896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8020.0476190476193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8269.4421768707489</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8520.2476190476191</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8771.4680272108853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9022.1904761904771</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9269.178231292517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9525.2952380952374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9772.2829931972792</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10024.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10273.810884353741</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10527.189115646259</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10775.504761904762</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11002.574149659864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalPolySLO!$E$4:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>24.736699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.736699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.736721311475414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.83704918032787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.227540983606552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.186229508196721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.176393442622963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.871475409836062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.282295081967206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.49409836065573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.541967213114759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.582295081967214</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.602295081967203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.9327868852459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.591475409836065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.680655737704917</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.734426229508188</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.317377049180323</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.369508196721316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.134426229508204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.247540983606562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.88065573770491</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.750819672131154</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.513770491803275</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.340089418777936</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.780245901639336</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.3172131147541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.282274590163933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.862042875157634</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.214880201765446</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.163416738567733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalPolySLO!$C$4:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4008.5714285714284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4261.2857142857147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4509.5183673469392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4760.9047619047615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5013.6190476190477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5263.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5513.2380952380954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5763.0476190476193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6015.7619047619046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6265.8204081632648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6517.1238095238095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7018.1537414965987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7267.7972789115638</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7519.8476190476194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7770.6530612244896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8020.0476190476193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8269.4421768707489</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8520.2476190476191</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8771.4680272108853</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9022.1904761904771</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9269.178231292517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9525.2952380952374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9772.2829931972792</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10024.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10273.810884353741</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10527.189115646259</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10775.504761904762</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11002.574149659864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalPolySLO!$F$4:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.880219780219782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.15189696442172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.661092808181913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.83115765422696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.033672070503762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.932124904798169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.639335219236202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.974810140354691</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.110935153954959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.90664650201284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.214788597541059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.168488194973342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.215124018838303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.456356870851927</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.573944075726246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.376840387335434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.848601349145909</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.873087026128047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.44788488738984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.234148592567252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.389827004678502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.323537839812225</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.39903251863646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.690103688390806</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.139537319116535</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.412627332444778</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.838274231480639</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.681560724119741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.525744521242189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="264816520"/>
+        <c:axId val="264816912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="264816520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15764,17 +16344,17 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4308832"/>
+        <c:crossAx val="264816912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4308832"/>
+        <c:axId val="264816912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15782,11 +16362,11 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4316280"/>
+        <c:crossAx val="264816520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16381,11 +16961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362012944"/>
-        <c:axId val="362016080"/>
+        <c:axId val="4909600"/>
+        <c:axId val="4905680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362012944"/>
+        <c:axId val="4909600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16415,13 +16995,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362016080"/>
+        <c:crossAx val="4905680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362016080"/>
+        <c:axId val="4905680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16433,7 +17013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362012944"/>
+        <c:crossAx val="4909600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17460,11 +18040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362013728"/>
-        <c:axId val="362016864"/>
+        <c:axId val="4911168"/>
+        <c:axId val="4908032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362013728"/>
+        <c:axId val="4911168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17494,13 +18074,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362016864"/>
+        <c:crossAx val="4908032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362016864"/>
+        <c:axId val="4908032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17512,7 +18092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362013728"/>
+        <c:crossAx val="4911168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18923,11 +19503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362018040"/>
-        <c:axId val="362026272"/>
+        <c:axId val="4913128"/>
+        <c:axId val="4916656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362018040"/>
+        <c:axId val="4913128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18957,13 +19537,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362026272"/>
+        <c:crossAx val="4916656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362026272"/>
+        <c:axId val="4916656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18975,7 +19555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362018040"/>
+        <c:crossAx val="4913128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19654,11 +20234,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362026664"/>
-        <c:axId val="362027840"/>
+        <c:axId val="4908424"/>
+        <c:axId val="4912736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362026664"/>
+        <c:axId val="4908424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19688,13 +20268,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362027840"/>
+        <c:crossAx val="4912736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362027840"/>
+        <c:axId val="4912736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19706,7 +20286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362026664"/>
+        <c:crossAx val="4908424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20937,11 +21517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362027448"/>
-        <c:axId val="362028232"/>
+        <c:axId val="4909208"/>
+        <c:axId val="4909992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362027448"/>
+        <c:axId val="4909208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20971,13 +21551,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362028232"/>
+        <c:crossAx val="4909992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362028232"/>
+        <c:axId val="4909992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20989,7 +21569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362027448"/>
+        <c:crossAx val="4909208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21896,11 +22476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291187168"/>
-        <c:axId val="291186384"/>
+        <c:axId val="4913520"/>
+        <c:axId val="4910776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291187168"/>
+        <c:axId val="4913520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21930,13 +22510,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291186384"/>
+        <c:crossAx val="4910776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291186384"/>
+        <c:axId val="4910776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21948,7 +22528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291187168"/>
+        <c:crossAx val="4913520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22627,11 +23207,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291184424"/>
-        <c:axId val="291184816"/>
+        <c:axId val="4917832"/>
+        <c:axId val="4919008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291184424"/>
+        <c:axId val="4917832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22661,13 +23241,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291184816"/>
+        <c:crossAx val="4919008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291184816"/>
+        <c:axId val="4919008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22679,7 +23259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291184424"/>
+        <c:crossAx val="4917832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23308,6 +23888,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>522409</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47871</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -36517,7 +37134,7 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36552,14 +37169,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <f>(C4*E4)/5252</f>
-        <v>0.19040365575019041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -38349,8 +38966,8 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38391,7 +39008,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.375</v>
       </c>
       <c r="F4">
         <f>0.1</f>
@@ -41021,6 +41638,419 @@
       </c>
       <c r="X147">
         <v>4.1440000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>24.736699999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="5">
+        <v>3500</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>24.736699999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="5">
+        <v>4008.5714285714284</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>24.736721311475414</v>
+      </c>
+      <c r="F6" s="5">
+        <v>18.880219780219782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="5">
+        <v>4261.2857142857147</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>24.83704918032787</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20.15189696442172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="5">
+        <v>4509.5183673469392</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>25.227540983606552</v>
+      </c>
+      <c r="F8" s="5">
+        <v>21.661092808181913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="5">
+        <v>4760.9047619047615</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>25.186229508196721</v>
+      </c>
+      <c r="F9" s="5">
+        <v>22.83115765422696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="5">
+        <v>5013.6190476190477</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>25.176393442622963</v>
+      </c>
+      <c r="F10" s="5">
+        <v>24.033672070503762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="5">
+        <v>5263.4285714285716</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>27.871475409836062</v>
+      </c>
+      <c r="F11" s="5">
+        <v>27.932124904798169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="5">
+        <v>5513.2380952380954</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>27.282295081967206</v>
+      </c>
+      <c r="F12" s="5">
+        <v>28.639335219236202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="5">
+        <v>5763.0476190476193</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>25.49409836065573</v>
+      </c>
+      <c r="F13" s="5">
+        <v>27.974810140354691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="5">
+        <v>6015.7619047619046</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <v>24.541967213114759</v>
+      </c>
+      <c r="F14" s="5">
+        <v>28.110935153954959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="5">
+        <v>6265.8204081632648</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>27.582295081967214</v>
+      </c>
+      <c r="F15" s="5">
+        <v>32.90664650201284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="5">
+        <v>6517.1238095238095</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>31.602295081967203</v>
+      </c>
+      <c r="F16" s="5">
+        <v>39.214788597541059</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="5">
+        <v>6771</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>31.9327868852459</v>
+      </c>
+      <c r="F17" s="5">
+        <v>41.168488194973342</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18" s="5">
+        <v>7018.1537414965987</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>31.591475409836065</v>
+      </c>
+      <c r="F18" s="5">
+        <v>42.215124018838303</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19" s="5">
+        <v>7267.7972789115638</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <v>30.680655737704917</v>
+      </c>
+      <c r="F19" s="5">
+        <v>42.456356870851927</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20" s="5">
+        <v>7519.8476190476194</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>29.734426229508188</v>
+      </c>
+      <c r="F20" s="5">
+        <v>42.573944075726246</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="5">
+        <v>7770.6530612244896</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>29.317377049180323</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43.376840387335434</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="5">
+        <v>8020.0476190476193</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <v>29.369508196721316</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44.848601349145909</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="5">
+        <v>8269.4421768707489</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>29.134426229508204</v>
+      </c>
+      <c r="F23" s="5">
+        <v>45.873087026128047</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="5">
+        <v>8520.2476190476191</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>29.247540983606562</v>
+      </c>
+      <c r="F24" s="5">
+        <v>47.44788488738984</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="5">
+        <v>8771.4680272108853</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <v>28.88065573770491</v>
+      </c>
+      <c r="F25" s="5">
+        <v>48.234148592567252</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="5">
+        <v>9022.1904761904771</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>28.750819672131154</v>
+      </c>
+      <c r="F26" s="5">
+        <v>49.389827004678502</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C27" s="5">
+        <v>9269.178231292517</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <v>28.513770491803275</v>
+      </c>
+      <c r="F27" s="5">
+        <v>50.323537839812225</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="5">
+        <v>9525.2952380952374</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <v>28.340089418777936</v>
+      </c>
+      <c r="F28" s="5">
+        <v>51.39903251863646</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="5">
+        <v>9772.2829931972792</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>27.780245901639336</v>
+      </c>
+      <c r="F29" s="5">
+        <v>51.690103688390806</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="5">
+        <v>10024.333333333334</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <v>27.3172131147541</v>
+      </c>
+      <c r="F30" s="5">
+        <v>52.139537319116535</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C31" s="5">
+        <v>10273.810884353741</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <v>26.282274590163933</v>
+      </c>
+      <c r="F31" s="5">
+        <v>51.412627332444778</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="5">
+        <v>10527.189115646259</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5">
+        <v>25.862042875157634</v>
+      </c>
+      <c r="F32" s="5">
+        <v>51.838274231480639</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="5">
+        <v>10775.504761904762</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
+        <v>24.214880201765446</v>
+      </c>
+      <c r="F33" s="5">
+        <v>49.681560724119741</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="5">
+        <v>11002.574149659864</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5">
+        <v>23.163416738567733</v>
+      </c>
+      <c r="F34" s="5">
+        <v>48.525744521242189</v>
       </c>
     </row>
   </sheetData>

--- a/torquecurves.xlsx
+++ b/torquecurves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="21" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Rennteam Uni Stuttgart" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Technikum Mittweida Motorsport" sheetId="8" r:id="rId4"/>
     <sheet name="Raceyard Kiel" sheetId="9" r:id="rId5"/>
     <sheet name="Eleven O Six Racing Team" sheetId="10" r:id="rId6"/>
-    <sheet name="Racetech Racing Team TU" sheetId="11" r:id="rId7"/>
+    <sheet name="Racetech" sheetId="11" r:id="rId7"/>
     <sheet name="WHZ Racing Team" sheetId="12" r:id="rId8"/>
     <sheet name="Tokyo Denki University" sheetId="13" r:id="rId9"/>
     <sheet name="Race UP Team(Padova)" sheetId="14" r:id="rId10"/>
@@ -32,17 +32,18 @@
     <sheet name="Kaiserslautern Racing Team" sheetId="22" r:id="rId18"/>
     <sheet name="TU Graz Racing Team" sheetId="23" r:id="rId19"/>
     <sheet name="Metropolia Motorsport" sheetId="24" r:id="rId20"/>
-    <sheet name="Global Formula Racing(OREGON)" sheetId="25" r:id="rId21"/>
+    <sheet name="GFR" sheetId="25" r:id="rId21"/>
     <sheet name="Formula Racing Cologne" sheetId="26" r:id="rId22"/>
-    <sheet name="Delft" sheetId="27" r:id="rId23"/>
-    <sheet name="CalPolySLO" sheetId="28" r:id="rId24"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId23"/>
+    <sheet name="Delft" sheetId="27" r:id="rId24"/>
+    <sheet name="CalPolySLO" sheetId="28" r:id="rId25"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="24">
   <si>
     <t>RPM</t>
   </si>
@@ -87,6 +88,33 @@
   </si>
   <si>
     <t>YFZ450</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -743,11 +771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4917440"/>
-        <c:axId val="4911560"/>
+        <c:axId val="422713880"/>
+        <c:axId val="422708784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4917440"/>
+        <c:axId val="422713880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,19 +799,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4911560"/>
+        <c:crossAx val="422708784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4911560"/>
+        <c:axId val="422708784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4917440"/>
+        <c:crossAx val="422713880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1270,11 +1299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4918616"/>
-        <c:axId val="4918224"/>
+        <c:axId val="422722112"/>
+        <c:axId val="422722504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4918616"/>
+        <c:axId val="422722112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,13 +1333,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4918224"/>
+        <c:crossAx val="422722504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4918224"/>
+        <c:axId val="422722504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4918616"/>
+        <c:crossAx val="422722112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2061,11 +2090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4920184"/>
-        <c:axId val="4919400"/>
+        <c:axId val="423256856"/>
+        <c:axId val="423257640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4920184"/>
+        <c:axId val="423256856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,13 +2124,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4919400"/>
+        <c:crossAx val="423257640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4919400"/>
+        <c:axId val="423257640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4920184"/>
+        <c:crossAx val="423256856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2864,11 +2893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339553144"/>
-        <c:axId val="339552360"/>
+        <c:axId val="423265088"/>
+        <c:axId val="423265872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339553144"/>
+        <c:axId val="423265088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,13 +2927,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339552360"/>
+        <c:crossAx val="423265872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339552360"/>
+        <c:axId val="423265872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,7 +2945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339553144"/>
+        <c:crossAx val="423265088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3751,11 +3780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339550792"/>
-        <c:axId val="339551968"/>
+        <c:axId val="423267440"/>
+        <c:axId val="423267832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339550792"/>
+        <c:axId val="423267440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,13 +3814,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339551968"/>
+        <c:crossAx val="423267832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339551968"/>
+        <c:axId val="423267832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3803,7 +3832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339550792"/>
+        <c:crossAx val="423267440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4278,11 +4307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339551184"/>
-        <c:axId val="339551576"/>
+        <c:axId val="423260776"/>
+        <c:axId val="423258816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339551184"/>
+        <c:axId val="423260776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4312,13 +4341,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339551576"/>
+        <c:crossAx val="423258816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339551576"/>
+        <c:axId val="423258816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4330,7 +4359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339551184"/>
+        <c:crossAx val="423260776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5333,11 +5362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339546480"/>
-        <c:axId val="339540992"/>
+        <c:axId val="423258032"/>
+        <c:axId val="423259208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339546480"/>
+        <c:axId val="423258032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,13 +5396,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339540992"/>
+        <c:crossAx val="423259208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339540992"/>
+        <c:axId val="423259208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5385,7 +5414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339546480"/>
+        <c:crossAx val="423258032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6292,11 +6321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339541384"/>
-        <c:axId val="339547656"/>
+        <c:axId val="423262736"/>
+        <c:axId val="423263128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339541384"/>
+        <c:axId val="423262736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6326,13 +6355,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339547656"/>
+        <c:crossAx val="423263128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339547656"/>
+        <c:axId val="423263128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6344,7 +6373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339541384"/>
+        <c:crossAx val="423262736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7215,11 +7244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339542168"/>
-        <c:axId val="339542952"/>
+        <c:axId val="423259600"/>
+        <c:axId val="423257248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339542168"/>
+        <c:axId val="423259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7249,13 +7278,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339542952"/>
+        <c:crossAx val="423257248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339542952"/>
+        <c:axId val="423257248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7267,7 +7296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339542168"/>
+        <c:crossAx val="423259600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7946,11 +7975,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339548440"/>
-        <c:axId val="339537856"/>
+        <c:axId val="423261952"/>
+        <c:axId val="423263912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339548440"/>
+        <c:axId val="423261952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7980,13 +8009,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339537856"/>
+        <c:crossAx val="423263912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339537856"/>
+        <c:axId val="423263912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7998,7 +8027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339548440"/>
+        <c:crossAx val="423261952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9073,11 +9102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339543736"/>
-        <c:axId val="339544128"/>
+        <c:axId val="423263520"/>
+        <c:axId val="423264696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339543736"/>
+        <c:axId val="423263520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9107,13 +9136,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339544128"/>
+        <c:crossAx val="423264696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339544128"/>
+        <c:axId val="423264696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9125,7 +9154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339543736"/>
+        <c:crossAx val="423263520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9732,11 +9761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4915872"/>
-        <c:axId val="4907640"/>
+        <c:axId val="422716232"/>
+        <c:axId val="422715056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4915872"/>
+        <c:axId val="422716232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9760,19 +9789,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4907640"/>
+        <c:crossAx val="422715056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4907640"/>
+        <c:axId val="422715056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9784,7 +9814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4915872"/>
+        <c:crossAx val="422716232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10426,11 +10456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339549224"/>
-        <c:axId val="339544520"/>
+        <c:axId val="363039816"/>
+        <c:axId val="363035504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339549224"/>
+        <c:axId val="363039816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10454,19 +10484,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339544520"/>
+        <c:crossAx val="363035504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339544520"/>
+        <c:axId val="363035504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10478,7 +10509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339549224"/>
+        <c:crossAx val="363039816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11421,11 +11452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339545304"/>
-        <c:axId val="339549616"/>
+        <c:axId val="363033152"/>
+        <c:axId val="363036288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339545304"/>
+        <c:axId val="363033152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11455,13 +11486,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339549616"/>
+        <c:crossAx val="363036288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339549616"/>
+        <c:axId val="363036288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11473,7 +11504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339545304"/>
+        <c:crossAx val="363033152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11569,7 +11600,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Global Formula Racing(OREGON)'!$C$4:$C$74</c:f>
+              <c:f>GFR!$C$4:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -11791,7 +11822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Global Formula Racing(OREGON)'!$E$4:$E$74</c:f>
+              <c:f>GFR!$E$4:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -12024,7 +12055,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Global Formula Racing(OREGON)'!$C$4:$C$74</c:f>
+              <c:f>GFR!$C$4:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -12246,7 +12277,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Global Formula Racing(OREGON)'!$F$4:$F$74</c:f>
+              <c:f>GFR!$F$4:$F$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -12476,11 +12507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339550008"/>
-        <c:axId val="339547264"/>
+        <c:axId val="363032368"/>
+        <c:axId val="363039032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339550008"/>
+        <c:axId val="363032368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12504,19 +12535,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339547264"/>
+        <c:crossAx val="363039032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339547264"/>
+        <c:axId val="363039032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12528,7 +12560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339550008"/>
+        <c:crossAx val="363032368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14023,11 +14055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262732448"/>
-        <c:axId val="262732840"/>
+        <c:axId val="363035896"/>
+        <c:axId val="363036680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262732448"/>
+        <c:axId val="363035896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14057,13 +14089,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262732840"/>
+        <c:crossAx val="363036680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262732840"/>
+        <c:axId val="363036680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14075,7 +14107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262732448"/>
+        <c:crossAx val="363035896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15738,11 +15770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="122287880"/>
-        <c:axId val="122289840"/>
+        <c:axId val="363037464"/>
+        <c:axId val="363038640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122287880"/>
+        <c:axId val="363037464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15772,13 +15804,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122289840"/>
+        <c:crossAx val="363038640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122289840"/>
+        <c:axId val="363038640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15790,7 +15822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122287880"/>
+        <c:crossAx val="363037464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16313,11 +16345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264816520"/>
-        <c:axId val="264816912"/>
+        <c:axId val="363034720"/>
+        <c:axId val="363037856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264816520"/>
+        <c:axId val="363034720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16341,20 +16373,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264816912"/>
+        <c:crossAx val="363037856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264816912"/>
+        <c:axId val="363037856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16366,7 +16397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264816520"/>
+        <c:crossAx val="363034720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16961,11 +16992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4909600"/>
-        <c:axId val="4905680"/>
+        <c:axId val="422710352"/>
+        <c:axId val="422707608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4909600"/>
+        <c:axId val="422710352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16995,13 +17026,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4905680"/>
+        <c:crossAx val="422707608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4905680"/>
+        <c:axId val="422707608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17013,7 +17044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4909600"/>
+        <c:crossAx val="422710352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18040,11 +18071,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4911168"/>
-        <c:axId val="4908032"/>
+        <c:axId val="422716624"/>
+        <c:axId val="422717016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4911168"/>
+        <c:axId val="422716624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18068,19 +18099,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4908032"/>
+        <c:crossAx val="422717016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4908032"/>
+        <c:axId val="422717016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18092,7 +18124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4911168"/>
+        <c:crossAx val="422716624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19503,11 +19535,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4913128"/>
-        <c:axId val="4916656"/>
+        <c:axId val="422710744"/>
+        <c:axId val="422709176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4913128"/>
+        <c:axId val="422710744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19531,19 +19563,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4916656"/>
+        <c:crossAx val="422709176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4916656"/>
+        <c:axId val="422709176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19555,7 +19588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4913128"/>
+        <c:crossAx val="422710744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20234,11 +20267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4908424"/>
-        <c:axId val="4912736"/>
+        <c:axId val="422717408"/>
+        <c:axId val="422715840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4908424"/>
+        <c:axId val="422717408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20262,19 +20295,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4912736"/>
+        <c:crossAx val="422715840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4912736"/>
+        <c:axId val="422715840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20286,7 +20320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4908424"/>
+        <c:crossAx val="422717408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21517,11 +21551,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4909208"/>
-        <c:axId val="4909992"/>
+        <c:axId val="422711528"/>
+        <c:axId val="422717800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4909208"/>
+        <c:axId val="422711528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21545,19 +21579,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4909992"/>
+        <c:crossAx val="422717800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4909992"/>
+        <c:axId val="422717800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21569,7 +21604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4909208"/>
+        <c:crossAx val="422711528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21665,7 +21700,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Racetech Racing Team TU'!$C$4:$C$66</c:f>
+              <c:f>Racetech!$C$4:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -21863,7 +21898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Racetech Racing Team TU'!$E$4:$E$66</c:f>
+              <c:f>Racetech!$E$4:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -22072,7 +22107,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Racetech Racing Team TU'!$C$4:$C$66</c:f>
+              <c:f>Racetech!$C$4:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -22270,7 +22305,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Racetech Racing Team TU'!$F$4:$F$66</c:f>
+              <c:f>Racetech!$F$4:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -22476,11 +22511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4913520"/>
-        <c:axId val="4910776"/>
+        <c:axId val="422712312"/>
+        <c:axId val="422718584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4913520"/>
+        <c:axId val="422712312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22504,19 +22539,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4910776"/>
+        <c:crossAx val="422718584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4910776"/>
+        <c:axId val="422718584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22528,7 +22564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4913520"/>
+        <c:crossAx val="422712312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23207,11 +23243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4917832"/>
-        <c:axId val="4919008"/>
+        <c:axId val="422708000"/>
+        <c:axId val="422720936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4917832"/>
+        <c:axId val="422708000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23241,13 +23277,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4919008"/>
+        <c:crossAx val="422720936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4919008"/>
+        <c:axId val="422720936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23259,7 +23295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4917832"/>
+        <c:crossAx val="422708000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24460,8 +24496,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26784,8 +26820,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="C2:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35954,7 +35990,7 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35990,7 +36026,28 @@
         <v>0.73756214927700003</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>(C3*E3)/5252</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2.8460000000000001</v>
+      </c>
       <c r="C4">
         <v>500</v>
       </c>
@@ -36003,6 +36060,12 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1.9470000000000001</v>
+      </c>
       <c r="C5">
         <v>5062</v>
       </c>
@@ -36019,6 +36082,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1.556</v>
+      </c>
       <c r="C6">
         <v>5151</v>
       </c>
@@ -36035,6 +36104,12 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1.333</v>
+      </c>
       <c r="C7">
         <v>5242</v>
       </c>
@@ -36051,6 +36126,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1.19</v>
+      </c>
       <c r="C8">
         <v>5326</v>
       </c>
@@ -36067,6 +36148,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1.083</v>
+      </c>
       <c r="C9">
         <v>5404</v>
       </c>
@@ -36083,6 +36170,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1.9550000000000001</v>
+      </c>
       <c r="C10">
         <v>5471</v>
       </c>
@@ -36099,6 +36192,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
       <c r="C11">
         <v>5539</v>
       </c>
@@ -38963,6 +39062,18 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:X147"/>
   <sheetViews>
@@ -41646,11 +41757,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -42064,7 +42175,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -47242,8 +47353,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47279,7 +47390,28 @@
         <v>0.73756214927700003</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>(C3*E3)/5252</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2.75</v>
+      </c>
       <c r="C4">
         <v>500</v>
       </c>
@@ -47292,6 +47424,12 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="C5">
         <v>5170</v>
       </c>
@@ -47308,6 +47446,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1.6659999999999999</v>
+      </c>
       <c r="C6">
         <v>5305</v>
       </c>
@@ -47324,6 +47468,12 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1.444</v>
+      </c>
       <c r="C7">
         <v>5436</v>
       </c>
@@ -47340,6 +47490,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1.304</v>
+      </c>
       <c r="C8">
         <v>5572</v>
       </c>
@@ -47356,6 +47512,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
       <c r="C9">
         <v>5696</v>
       </c>
@@ -47372,6 +47534,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>2.1110000000000002</v>
+      </c>
       <c r="C10">
         <v>5832</v>
       </c>
@@ -47388,6 +47556,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>2.625</v>
+      </c>
       <c r="C11">
         <v>5966</v>
       </c>
@@ -48295,7 +48469,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/torquecurves.xlsx
+++ b/torquecurves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Rennteam Uni Stuttgart" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,8 @@
     <sheet name="Metropolia Motorsport" sheetId="24" r:id="rId20"/>
     <sheet name="GFR" sheetId="25" r:id="rId21"/>
     <sheet name="Formula Racing Cologne" sheetId="26" r:id="rId22"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId23"/>
-    <sheet name="Delft" sheetId="27" r:id="rId24"/>
-    <sheet name="CalPolySLO" sheetId="28" r:id="rId25"/>
+    <sheet name="Delft" sheetId="27" r:id="rId23"/>
+    <sheet name="CalPolySLO" sheetId="28" r:id="rId24"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
@@ -771,11 +770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422713880"/>
-        <c:axId val="422708784"/>
+        <c:axId val="353383424"/>
+        <c:axId val="353392832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422713880"/>
+        <c:axId val="353383424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,20 +798,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422708784"/>
+        <c:crossAx val="353392832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422708784"/>
+        <c:axId val="353392832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422713880"/>
+        <c:crossAx val="353383424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1299,11 +1297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422722112"/>
-        <c:axId val="422722504"/>
+        <c:axId val="353396360"/>
+        <c:axId val="353396752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422722112"/>
+        <c:axId val="353396360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,13 +1331,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422722504"/>
+        <c:crossAx val="353396752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422722504"/>
+        <c:axId val="353396752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422722112"/>
+        <c:crossAx val="353396360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2090,11 +2088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423256856"/>
-        <c:axId val="423257640"/>
+        <c:axId val="353395576"/>
+        <c:axId val="353394792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423256856"/>
+        <c:axId val="353395576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,13 +2122,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423257640"/>
+        <c:crossAx val="353394792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423257640"/>
+        <c:axId val="353394792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423256856"/>
+        <c:crossAx val="353395576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2893,11 +2891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423265088"/>
-        <c:axId val="423265872"/>
+        <c:axId val="397093344"/>
+        <c:axId val="397097264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423265088"/>
+        <c:axId val="397093344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,13 +2925,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423265872"/>
+        <c:crossAx val="397097264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423265872"/>
+        <c:axId val="397097264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,7 +2943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423265088"/>
+        <c:crossAx val="397093344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3780,11 +3778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423267440"/>
-        <c:axId val="423267832"/>
+        <c:axId val="397101968"/>
+        <c:axId val="397096480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423267440"/>
+        <c:axId val="397101968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,13 +3812,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423267832"/>
+        <c:crossAx val="397096480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423267832"/>
+        <c:axId val="397096480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3832,7 +3830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423267440"/>
+        <c:crossAx val="397101968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4307,11 +4305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423260776"/>
-        <c:axId val="423258816"/>
+        <c:axId val="397098832"/>
+        <c:axId val="397103928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423260776"/>
+        <c:axId val="397098832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4341,13 +4339,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423258816"/>
+        <c:crossAx val="397103928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423258816"/>
+        <c:axId val="397103928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,7 +4357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423260776"/>
+        <c:crossAx val="397098832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5362,11 +5360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423258032"/>
-        <c:axId val="423259208"/>
+        <c:axId val="354967040"/>
+        <c:axId val="354970568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423258032"/>
+        <c:axId val="354967040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,13 +5394,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423259208"/>
+        <c:crossAx val="354970568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423259208"/>
+        <c:axId val="354970568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5414,7 +5412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423258032"/>
+        <c:crossAx val="354967040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6321,11 +6319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423262736"/>
-        <c:axId val="423263128"/>
+        <c:axId val="354968608"/>
+        <c:axId val="354970960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423262736"/>
+        <c:axId val="354968608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,13 +6353,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423263128"/>
+        <c:crossAx val="354970960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423263128"/>
+        <c:axId val="354970960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6373,7 +6371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423262736"/>
+        <c:crossAx val="354968608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7244,11 +7242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423259600"/>
-        <c:axId val="423257248"/>
+        <c:axId val="354963512"/>
+        <c:axId val="136084512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423259600"/>
+        <c:axId val="354963512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7278,13 +7276,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423257248"/>
+        <c:crossAx val="136084512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423257248"/>
+        <c:axId val="136084512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7296,7 +7294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423259600"/>
+        <c:crossAx val="354963512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7975,11 +7973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423261952"/>
-        <c:axId val="423263912"/>
+        <c:axId val="136088040"/>
+        <c:axId val="136082160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423261952"/>
+        <c:axId val="136088040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8009,13 +8007,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423263912"/>
+        <c:crossAx val="136082160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423263912"/>
+        <c:axId val="136082160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8027,7 +8025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423261952"/>
+        <c:crossAx val="136088040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9102,11 +9100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423263520"/>
-        <c:axId val="423264696"/>
+        <c:axId val="136083336"/>
+        <c:axId val="136084120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423263520"/>
+        <c:axId val="136083336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9136,13 +9134,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423264696"/>
+        <c:crossAx val="136084120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423264696"/>
+        <c:axId val="136084120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9154,7 +9152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423263520"/>
+        <c:crossAx val="136083336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9761,11 +9759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422716232"/>
-        <c:axId val="422715056"/>
+        <c:axId val="353385384"/>
+        <c:axId val="353384208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422716232"/>
+        <c:axId val="353385384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9789,20 +9787,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422715056"/>
+        <c:crossAx val="353384208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422715056"/>
+        <c:axId val="353384208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9814,7 +9811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422716232"/>
+        <c:crossAx val="353385384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10456,11 +10453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363039816"/>
-        <c:axId val="363035504"/>
+        <c:axId val="137510856"/>
+        <c:axId val="137509288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363039816"/>
+        <c:axId val="137510856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10484,20 +10481,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363035504"/>
+        <c:crossAx val="137509288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363035504"/>
+        <c:axId val="137509288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10509,7 +10505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363039816"/>
+        <c:crossAx val="137510856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11452,11 +11448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363033152"/>
-        <c:axId val="363036288"/>
+        <c:axId val="137511640"/>
+        <c:axId val="271431928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363033152"/>
+        <c:axId val="137511640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11486,13 +11482,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363036288"/>
+        <c:crossAx val="271431928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363036288"/>
+        <c:axId val="271431928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11504,7 +11500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363033152"/>
+        <c:crossAx val="137511640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11827,7 +11823,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>26.18346</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26.1834562993335</c:v>
@@ -12282,7 +12278,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>0.19040365575019041</c:v>
+                  <c:v>2.4927132520944402</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25.236225397415492</c:v>
@@ -12507,11 +12503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363032368"/>
-        <c:axId val="363039032"/>
+        <c:axId val="270273328"/>
+        <c:axId val="270275680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363032368"/>
+        <c:axId val="270273328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12542,13 +12538,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363039032"/>
+        <c:crossAx val="270275680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363039032"/>
+        <c:axId val="270275680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12560,7 +12556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363032368"/>
+        <c:crossAx val="270273328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14055,11 +14051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363035896"/>
-        <c:axId val="363036680"/>
+        <c:axId val="391720496"/>
+        <c:axId val="391718536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363035896"/>
+        <c:axId val="391720496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14089,13 +14085,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363036680"/>
+        <c:crossAx val="391718536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363036680"/>
+        <c:axId val="391718536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14107,7 +14103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363035896"/>
+        <c:crossAx val="391720496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15770,11 +15766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363037464"/>
-        <c:axId val="363038640"/>
+        <c:axId val="391718928"/>
+        <c:axId val="391728336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363037464"/>
+        <c:axId val="391718928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15804,13 +15800,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363038640"/>
+        <c:crossAx val="391728336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363038640"/>
+        <c:axId val="391728336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15822,7 +15818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363037464"/>
+        <c:crossAx val="391718928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16345,11 +16341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363034720"/>
-        <c:axId val="363037856"/>
+        <c:axId val="391727552"/>
+        <c:axId val="391720888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363034720"/>
+        <c:axId val="391727552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16379,13 +16375,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363037856"/>
+        <c:crossAx val="391720888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363037856"/>
+        <c:axId val="391720888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16397,7 +16393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363034720"/>
+        <c:crossAx val="391727552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16992,11 +16988,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422710352"/>
-        <c:axId val="422707608"/>
+        <c:axId val="353387736"/>
+        <c:axId val="353389304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422710352"/>
+        <c:axId val="353387736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17026,13 +17022,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422707608"/>
+        <c:crossAx val="353389304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422707608"/>
+        <c:axId val="353389304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17044,7 +17040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422710352"/>
+        <c:crossAx val="353387736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18071,11 +18067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422716624"/>
-        <c:axId val="422717016"/>
+        <c:axId val="353385776"/>
+        <c:axId val="353382248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422716624"/>
+        <c:axId val="353385776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18106,13 +18102,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422717016"/>
+        <c:crossAx val="353382248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422717016"/>
+        <c:axId val="353382248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18124,7 +18120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422716624"/>
+        <c:crossAx val="353385776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19535,11 +19531,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422710744"/>
-        <c:axId val="422709176"/>
+        <c:axId val="353388912"/>
+        <c:axId val="353381856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422710744"/>
+        <c:axId val="353388912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19563,20 +19559,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422709176"/>
+        <c:crossAx val="353381856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422709176"/>
+        <c:axId val="353381856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19588,7 +19583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422710744"/>
+        <c:crossAx val="353388912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20267,11 +20262,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422717408"/>
-        <c:axId val="422715840"/>
+        <c:axId val="353384600"/>
+        <c:axId val="353392440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422717408"/>
+        <c:axId val="353384600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20295,20 +20290,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422715840"/>
+        <c:crossAx val="353392440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422715840"/>
+        <c:axId val="353392440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20320,7 +20314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422717408"/>
+        <c:crossAx val="353384600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21551,11 +21545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422711528"/>
-        <c:axId val="422717800"/>
+        <c:axId val="353384992"/>
+        <c:axId val="353389696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422711528"/>
+        <c:axId val="353384992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21579,20 +21573,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422717800"/>
+        <c:crossAx val="353389696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422717800"/>
+        <c:axId val="353389696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21604,7 +21597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422711528"/>
+        <c:crossAx val="353384992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21903,7 +21896,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>24.70833</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.7083320007795</c:v>
@@ -22310,7 +22303,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>0.19040365575019041</c:v>
+                  <c:v>2.352278179741051</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.322558348063598</c:v>
@@ -22511,11 +22504,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422712312"/>
-        <c:axId val="422718584"/>
+        <c:axId val="353387344"/>
+        <c:axId val="353391656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422712312"/>
+        <c:axId val="353387344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22539,20 +22532,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422718584"/>
+        <c:crossAx val="353391656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422718584"/>
+        <c:axId val="353391656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22564,7 +22556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422712312"/>
+        <c:crossAx val="353387344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23243,11 +23235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422708000"/>
-        <c:axId val="422720936"/>
+        <c:axId val="353395968"/>
+        <c:axId val="353397144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422708000"/>
+        <c:axId val="353395968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23277,13 +23269,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422720936"/>
+        <c:crossAx val="353397144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422720936"/>
+        <c:axId val="353397144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23295,7 +23287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422708000"/>
+        <c:crossAx val="353395968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -35989,8 +35981,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36034,7 +36026,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>26.18346</v>
       </c>
       <c r="F3">
         <f>(C3*E3)/5252</f>
@@ -36046,17 +36038,17 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>2.8460000000000001</v>
+        <v>2.5830000000000002</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>26.18346</v>
       </c>
       <c r="F4">
         <f>(C4*E4)/5252</f>
-        <v>0.19040365575019041</v>
+        <v>2.4927132520944402</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -36064,7 +36056,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.9470000000000001</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>5062</v>
@@ -36086,7 +36078,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>1.556</v>
+        <v>1.667</v>
       </c>
       <c r="C6">
         <v>5151</v>
@@ -36108,7 +36100,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="C7">
         <v>5242</v>
@@ -36130,7 +36122,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1.19</v>
+        <v>1.286</v>
       </c>
       <c r="C8">
         <v>5326</v>
@@ -36152,7 +36144,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1.083</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C9">
         <v>5404</v>
@@ -36174,7 +36166,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>1.9550000000000001</v>
+        <v>2.073</v>
       </c>
       <c r="C10">
         <v>5471</v>
@@ -36196,7 +36188,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="C11">
         <v>5539</v>
@@ -39062,18 +39054,6 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:X147"/>
   <sheetViews>
@@ -41757,12 +41737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47353,8 +47333,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47398,7 +47378,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>24.70833</v>
       </c>
       <c r="F3">
         <f>(C3*E3)/5252</f>
@@ -47416,11 +47396,11 @@
         <v>500</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>24.70833</v>
       </c>
       <c r="F4">
         <f>(C4*E4)/5252</f>
-        <v>0.19040365575019041</v>
+        <v>2.352278179741051</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">

--- a/torquecurves.xlsx
+++ b/torquecurves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="20" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Rennteam Uni Stuttgart" sheetId="1" r:id="rId1"/>
@@ -770,11 +770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353383424"/>
-        <c:axId val="353392832"/>
+        <c:axId val="38328944"/>
+        <c:axId val="269216416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353383424"/>
+        <c:axId val="38328944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,13 +804,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353392832"/>
+        <c:crossAx val="269216416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353392832"/>
+        <c:axId val="269216416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353383424"/>
+        <c:crossAx val="38328944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1297,11 +1297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353396360"/>
-        <c:axId val="353396752"/>
+        <c:axId val="345843928"/>
+        <c:axId val="345843144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353396360"/>
+        <c:axId val="345843928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,13 +1331,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353396752"/>
+        <c:crossAx val="345843144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353396752"/>
+        <c:axId val="345843144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353396360"/>
+        <c:crossAx val="345843928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2088,11 +2088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353395576"/>
-        <c:axId val="353394792"/>
+        <c:axId val="345843536"/>
+        <c:axId val="345844712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353395576"/>
+        <c:axId val="345843536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,13 +2122,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353394792"/>
+        <c:crossAx val="345844712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353394792"/>
+        <c:axId val="345844712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353395576"/>
+        <c:crossAx val="345843536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2891,11 +2891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397093344"/>
-        <c:axId val="397097264"/>
+        <c:axId val="267839048"/>
+        <c:axId val="267839832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397093344"/>
+        <c:axId val="267839048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,13 +2925,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397097264"/>
+        <c:crossAx val="267839832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397097264"/>
+        <c:axId val="267839832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2943,7 +2943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397093344"/>
+        <c:crossAx val="267839048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3778,11 +3778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397101968"/>
-        <c:axId val="397096480"/>
+        <c:axId val="346128088"/>
+        <c:axId val="346130048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397101968"/>
+        <c:axId val="346128088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,13 +3812,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397096480"/>
+        <c:crossAx val="346130048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397096480"/>
+        <c:axId val="346130048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3830,7 +3830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397101968"/>
+        <c:crossAx val="346128088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4305,11 +4305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397098832"/>
-        <c:axId val="397103928"/>
+        <c:axId val="346130440"/>
+        <c:axId val="346128480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397098832"/>
+        <c:axId val="346130440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4339,13 +4339,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397103928"/>
+        <c:crossAx val="346128480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397103928"/>
+        <c:axId val="346128480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397098832"/>
+        <c:crossAx val="346130440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5360,11 +5360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354967040"/>
-        <c:axId val="354970568"/>
+        <c:axId val="346130832"/>
+        <c:axId val="346127304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354967040"/>
+        <c:axId val="346130832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,13 +5394,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354970568"/>
+        <c:crossAx val="346127304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354970568"/>
+        <c:axId val="346127304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,7 +5412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354967040"/>
+        <c:crossAx val="346130832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6319,11 +6319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354968608"/>
-        <c:axId val="354970960"/>
+        <c:axId val="346000008"/>
+        <c:axId val="345993736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354968608"/>
+        <c:axId val="346000008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,13 +6353,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354970960"/>
+        <c:crossAx val="345993736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354970960"/>
+        <c:axId val="345993736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6371,7 +6371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354968608"/>
+        <c:crossAx val="346000008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7242,11 +7242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354963512"/>
-        <c:axId val="136084512"/>
+        <c:axId val="345994912"/>
+        <c:axId val="345994128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354963512"/>
+        <c:axId val="345994912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7276,13 +7276,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136084512"/>
+        <c:crossAx val="345994128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136084512"/>
+        <c:axId val="345994128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7294,7 +7294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354963512"/>
+        <c:crossAx val="345994912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7973,11 +7973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136088040"/>
-        <c:axId val="136082160"/>
+        <c:axId val="345995696"/>
+        <c:axId val="346000400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136088040"/>
+        <c:axId val="345995696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8007,13 +8007,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136082160"/>
+        <c:crossAx val="346000400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136082160"/>
+        <c:axId val="346000400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8025,7 +8025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136088040"/>
+        <c:crossAx val="345995696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9100,11 +9100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136083336"/>
-        <c:axId val="136084120"/>
+        <c:axId val="345996872"/>
+        <c:axId val="345996088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136083336"/>
+        <c:axId val="345996872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9134,13 +9134,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136084120"/>
+        <c:crossAx val="345996088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136084120"/>
+        <c:axId val="345996088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9152,7 +9152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136083336"/>
+        <c:crossAx val="345996872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9759,11 +9759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353385384"/>
-        <c:axId val="353384208"/>
+        <c:axId val="267836696"/>
+        <c:axId val="267841008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353385384"/>
+        <c:axId val="267836696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9793,13 +9793,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353384208"/>
+        <c:crossAx val="267841008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353384208"/>
+        <c:axId val="267841008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9811,7 +9811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353385384"/>
+        <c:crossAx val="267836696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10453,11 +10453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137510856"/>
-        <c:axId val="137509288"/>
+        <c:axId val="345994520"/>
+        <c:axId val="345996480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137510856"/>
+        <c:axId val="345994520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10487,13 +10487,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137509288"/>
+        <c:crossAx val="345996480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137509288"/>
+        <c:axId val="345996480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10505,7 +10505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137510856"/>
+        <c:crossAx val="345994520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11448,11 +11448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137511640"/>
-        <c:axId val="271431928"/>
+        <c:axId val="345997656"/>
+        <c:axId val="345998048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137511640"/>
+        <c:axId val="345997656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11482,13 +11482,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271431928"/>
+        <c:crossAx val="345998048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="271431928"/>
+        <c:axId val="345998048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11500,7 +11500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137511640"/>
+        <c:crossAx val="345997656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12503,11 +12503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270273328"/>
-        <c:axId val="270275680"/>
+        <c:axId val="345998832"/>
+        <c:axId val="345999224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270273328"/>
+        <c:axId val="345998832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12538,13 +12538,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270275680"/>
+        <c:crossAx val="345999224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270275680"/>
+        <c:axId val="345999224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12556,7 +12556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270273328"/>
+        <c:crossAx val="345998832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14051,11 +14051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391720496"/>
-        <c:axId val="391718536"/>
+        <c:axId val="347578360"/>
+        <c:axId val="347579144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391720496"/>
+        <c:axId val="347578360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14085,13 +14085,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391718536"/>
+        <c:crossAx val="347579144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391718536"/>
+        <c:axId val="347579144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14103,7 +14103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391720496"/>
+        <c:crossAx val="347578360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15766,11 +15766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391718928"/>
-        <c:axId val="391728336"/>
+        <c:axId val="347586592"/>
+        <c:axId val="347581496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391718928"/>
+        <c:axId val="347586592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15800,13 +15800,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391728336"/>
+        <c:crossAx val="347581496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391728336"/>
+        <c:axId val="347581496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15818,7 +15818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391718928"/>
+        <c:crossAx val="347586592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15914,101 +15914,119 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CalPolySLO!$C$4:$C$34</c:f>
+              <c:f>CalPolySLO!$C$4:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>3500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>4008.5714285714284</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>4261.2857142857147</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>4509.5183673469392</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>4760.9047619047615</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>5013.6190476190477</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>5263.4285714285716</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>5513.2380952380954</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>5763.0476190476193</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>6015.7619047619046</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>6265.8204081632648</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>6517.1238095238095</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>6771</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>7018.1537414965987</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>7267.7972789115638</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>7519.8476190476194</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>7770.6530612244896</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>8020.0476190476193</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>8269.4421768707489</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>8520.2476190476191</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>8771.4680272108853</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>9022.1904761904771</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>9269.178231292517</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>9525.2952380952374</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>9772.2829931972792</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>10024.333333333334</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>10273.810884353741</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>10527.189115646259</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>10775.504761904762</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>11002.574149659864</c:v>
                 </c:pt>
               </c:numCache>
@@ -16016,101 +16034,119 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalPolySLO!$E$4:$E$34</c:f>
+              <c:f>CalPolySLO!$E$4:$E$40</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>24.736699999999999</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.736699999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.736721311475414</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>24.83704918032787</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>25.227540983606552</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>25.186229508196721</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>25.176393442622963</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>27.871475409836062</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>27.282295081967206</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>27.282295081967199</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>25.49409836065573</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>24.541967213114759</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>27.582295081967214</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>31.602295081967203</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>31.9327868852459</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>31.591475409836065</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>30.680655737704917</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>29.734426229508188</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>29.317377049180323</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>29.369508196721316</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>29.134426229508204</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>29.247540983606562</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>28.88065573770491</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>28.750819672131154</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>28.513770491803275</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>28.340089418777936</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>27.780245901639336</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>27.3172131147541</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>26.282274590163933</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>25.862042875157634</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>24.214880201765446</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>23.163416738567733</c:v>
                 </c:pt>
               </c:numCache>
@@ -16129,101 +16165,119 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CalPolySLO!$C$4:$C$34</c:f>
+              <c:f>CalPolySLO!$C$4:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>3500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>4008.5714285714284</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>4261.2857142857147</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>4509.5183673469392</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>4760.9047619047615</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>5013.6190476190477</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>5263.4285714285716</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>5513.2380952380954</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>5763.0476190476193</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>6015.7619047619046</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>6265.8204081632648</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>6517.1238095238095</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>6771</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>7018.1537414965987</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>7267.7972789115638</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>7519.8476190476194</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>7770.6530612244896</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>8020.0476190476193</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>8269.4421768707489</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>8520.2476190476191</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>8771.4680272108853</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>9022.1904761904771</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>9269.178231292517</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>9525.2952380952374</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>9772.2829931972792</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>10024.333333333334</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>10273.810884353741</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>10527.189115646259</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>10775.504761904762</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>11002.574149659864</c:v>
                 </c:pt>
               </c:numCache>
@@ -16231,101 +16285,119 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalPolySLO!$F$4:$F$34</c:f>
+              <c:f>CalPolySLO!$F$4:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>3.6565901207703</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.4820856816451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3075812425198601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1330768033946299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.958572364269401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7840679251442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.609563486018899</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>18.880219780219782</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>20.15189696442172</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>21.661092808181913</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>22.83115765422696</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>24.033672070503762</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>27.932124904798169</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>28.639335219236202</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>27.974810140354691</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>28.110935153954959</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>32.90664650201284</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>39.214788597541059</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>41.168488194973342</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>42.215124018838303</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>42.456356870851927</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>42.573944075726246</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>43.376840387335434</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>44.848601349145909</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>45.873087026128047</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>47.44788488738984</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>48.234148592567252</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>49.389827004678502</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>50.323537839812225</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>51.39903251863646</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>51.690103688390806</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>52.139537319116535</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>51.412627332444778</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>51.838274231480639</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>49.681560724119741</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>48.525744521242189</c:v>
                 </c:pt>
               </c:numCache>
@@ -16341,11 +16413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391727552"/>
-        <c:axId val="391720888"/>
+        <c:axId val="347577184"/>
+        <c:axId val="347587376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391727552"/>
+        <c:axId val="347577184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16369,19 +16441,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391720888"/>
+        <c:crossAx val="347587376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391720888"/>
+        <c:axId val="347587376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16393,7 +16466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391727552"/>
+        <c:crossAx val="347577184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16988,11 +17061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353387736"/>
-        <c:axId val="353389304"/>
+        <c:axId val="267834344"/>
+        <c:axId val="267835128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353387736"/>
+        <c:axId val="267834344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17022,13 +17095,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353389304"/>
+        <c:crossAx val="267835128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353389304"/>
+        <c:axId val="267835128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17040,7 +17113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353387736"/>
+        <c:crossAx val="267834344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18067,11 +18140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353385776"/>
-        <c:axId val="353382248"/>
+        <c:axId val="267837480"/>
+        <c:axId val="267837872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353385776"/>
+        <c:axId val="267837480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18095,20 +18168,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353382248"/>
+        <c:crossAx val="267837872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353382248"/>
+        <c:axId val="267837872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18120,7 +18192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353385776"/>
+        <c:crossAx val="267837480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19531,11 +19603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353388912"/>
-        <c:axId val="353381856"/>
+        <c:axId val="345848240"/>
+        <c:axId val="345845104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353388912"/>
+        <c:axId val="345848240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19565,13 +19637,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353381856"/>
+        <c:crossAx val="345845104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353381856"/>
+        <c:axId val="345845104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19583,7 +19655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353388912"/>
+        <c:crossAx val="345848240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20262,11 +20334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353384600"/>
-        <c:axId val="353392440"/>
+        <c:axId val="345841968"/>
+        <c:axId val="345847456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353384600"/>
+        <c:axId val="345841968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20296,13 +20368,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353392440"/>
+        <c:crossAx val="345847456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353392440"/>
+        <c:axId val="345847456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20314,7 +20386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353384600"/>
+        <c:crossAx val="345841968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21545,11 +21617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353384992"/>
-        <c:axId val="353389696"/>
+        <c:axId val="345845888"/>
+        <c:axId val="345845496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353384992"/>
+        <c:axId val="345845888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21579,13 +21651,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353389696"/>
+        <c:crossAx val="345845496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353389696"/>
+        <c:axId val="345845496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21597,7 +21669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353384992"/>
+        <c:crossAx val="345845888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22504,11 +22576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353387344"/>
-        <c:axId val="353391656"/>
+        <c:axId val="345846280"/>
+        <c:axId val="345841576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353387344"/>
+        <c:axId val="345846280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22538,13 +22610,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353391656"/>
+        <c:crossAx val="345841576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353391656"/>
+        <c:axId val="345841576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22556,7 +22628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353387344"/>
+        <c:crossAx val="345846280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23235,11 +23307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353395968"/>
-        <c:axId val="353397144"/>
+        <c:axId val="345844320"/>
+        <c:axId val="345842360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353395968"/>
+        <c:axId val="345844320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23269,13 +23341,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353397144"/>
+        <c:crossAx val="345842360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353397144"/>
+        <c:axId val="345842360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23287,7 +23359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353395968"/>
+        <c:crossAx val="345844320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -35981,7 +36053,7 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -41739,10 +41811,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41778,369 +41850,435 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
-        <v>24.736699999999999</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>0.1</v>
+        <v>3.6565901207703</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="5">
-        <v>3500</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>24.736699999999999</v>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
       </c>
       <c r="F5" s="5">
-        <v>16</v>
+        <v>5.4820856816451</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="5">
-        <v>4008.5714285714284</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>24.736721311475414</v>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>18.880219780219782</v>
+        <v>7.3075812425198601</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="5">
-        <v>4261.2857142857147</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>24.83704918032787</v>
+      <c r="C7">
+        <v>1500</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
       </c>
       <c r="F7" s="5">
-        <v>20.15189696442172</v>
+        <v>9.1330768033946299</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="5">
-        <v>4509.5183673469392</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>25.227540983606552</v>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
       </c>
       <c r="F8" s="5">
-        <v>21.661092808181913</v>
+        <v>10.958572364269401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="5">
-        <v>4760.9047619047615</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>25.186229508196721</v>
+      <c r="C9">
+        <v>2500</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
       </c>
       <c r="F9" s="5">
-        <v>22.83115765422696</v>
+        <v>12.7840679251442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="5">
-        <v>5013.6190476190477</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>25.176393442622963</v>
+      <c r="C10">
+        <v>3000</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
       </c>
       <c r="F10" s="5">
-        <v>24.033672070503762</v>
+        <v>14.609563486018899</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
-        <v>5263.4285714285716</v>
+        <v>3500</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
-        <v>27.871475409836062</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5">
-        <v>27.932124904798169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="5">
-        <v>5513.2380952380954</v>
+        <v>4008.5714285714284</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
-        <v>27.282295081967206</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>28.639335219236202</v>
+        <v>18.880219780219782</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="5">
-        <v>5763.0476190476193</v>
+        <v>4261.2857142857147</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
-        <v>25.49409836065573</v>
+        <v>24.83704918032787</v>
       </c>
       <c r="F13" s="5">
-        <v>27.974810140354691</v>
+        <v>20.15189696442172</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="5">
-        <v>6015.7619047619046</v>
+        <v>4509.5183673469392</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
-        <v>24.541967213114759</v>
+        <v>25.227540983606552</v>
       </c>
       <c r="F14" s="5">
-        <v>28.110935153954959</v>
+        <v>21.661092808181913</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="5">
-        <v>6265.8204081632648</v>
+        <v>4760.9047619047615</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
-        <v>27.582295081967214</v>
+        <v>25.186229508196721</v>
       </c>
       <c r="F15" s="5">
-        <v>32.90664650201284</v>
+        <v>22.83115765422696</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="5">
-        <v>6517.1238095238095</v>
+        <v>5013.6190476190477</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
-        <v>31.602295081967203</v>
+        <v>25.176393442622963</v>
       </c>
       <c r="F16" s="5">
-        <v>39.214788597541059</v>
+        <v>24.033672070503762</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="5">
-        <v>6771</v>
+        <v>5263.4285714285716</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <v>31.9327868852459</v>
+        <v>27.871475409836062</v>
       </c>
       <c r="F17" s="5">
-        <v>41.168488194973342</v>
+        <v>27.932124904798169</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18" s="5">
-        <v>7018.1537414965987</v>
+        <v>5513.2380952380954</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
-        <v>31.591475409836065</v>
+        <v>27.282295081967199</v>
       </c>
       <c r="F18" s="5">
-        <v>42.215124018838303</v>
+        <v>28.639335219236202</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19" s="5">
-        <v>7267.7972789115638</v>
+        <v>5763.0476190476193</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
-        <v>30.680655737704917</v>
+        <v>25.49409836065573</v>
       </c>
       <c r="F19" s="5">
-        <v>42.456356870851927</v>
+        <v>27.974810140354691</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C20" s="5">
-        <v>7519.8476190476194</v>
+        <v>6015.7619047619046</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
-        <v>29.734426229508188</v>
+        <v>24.541967213114759</v>
       </c>
       <c r="F20" s="5">
-        <v>42.573944075726246</v>
+        <v>28.110935153954959</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C21" s="5">
-        <v>7770.6530612244896</v>
+        <v>6265.8204081632648</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
-        <v>29.317377049180323</v>
+        <v>27.582295081967214</v>
       </c>
       <c r="F21" s="5">
-        <v>43.376840387335434</v>
+        <v>32.90664650201284</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22" s="5">
-        <v>8020.0476190476193</v>
+        <v>6517.1238095238095</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
-        <v>29.369508196721316</v>
+        <v>31.602295081967203</v>
       </c>
       <c r="F22" s="5">
-        <v>44.848601349145909</v>
+        <v>39.214788597541059</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5">
-        <v>8269.4421768707489</v>
+        <v>6771</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
-        <v>29.134426229508204</v>
+        <v>31.9327868852459</v>
       </c>
       <c r="F23" s="5">
-        <v>45.873087026128047</v>
+        <v>41.168488194973342</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5">
-        <v>8520.2476190476191</v>
+        <v>7018.1537414965987</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
-        <v>29.247540983606562</v>
+        <v>31.591475409836065</v>
       </c>
       <c r="F24" s="5">
-        <v>47.44788488738984</v>
+        <v>42.215124018838303</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5">
-        <v>8771.4680272108853</v>
+        <v>7267.7972789115638</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
-        <v>28.88065573770491</v>
+        <v>30.680655737704917</v>
       </c>
       <c r="F25" s="5">
-        <v>48.234148592567252</v>
+        <v>42.456356870851927</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C26" s="5">
-        <v>9022.1904761904771</v>
+        <v>7519.8476190476194</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
-        <v>28.750819672131154</v>
+        <v>29.734426229508188</v>
       </c>
       <c r="F26" s="5">
-        <v>49.389827004678502</v>
+        <v>42.573944075726246</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C27" s="5">
-        <v>9269.178231292517</v>
+        <v>7770.6530612244896</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5">
-        <v>28.513770491803275</v>
+        <v>29.317377049180323</v>
       </c>
       <c r="F27" s="5">
-        <v>50.323537839812225</v>
+        <v>43.376840387335434</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C28" s="5">
-        <v>9525.2952380952374</v>
+        <v>8020.0476190476193</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
-        <v>28.340089418777936</v>
+        <v>29.369508196721316</v>
       </c>
       <c r="F28" s="5">
-        <v>51.39903251863646</v>
+        <v>44.848601349145909</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C29" s="5">
-        <v>9772.2829931972792</v>
+        <v>8269.4421768707489</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5">
-        <v>27.780245901639336</v>
+        <v>29.134426229508204</v>
       </c>
       <c r="F29" s="5">
-        <v>51.690103688390806</v>
+        <v>45.873087026128047</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C30" s="5">
-        <v>10024.333333333334</v>
+        <v>8520.2476190476191</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5">
-        <v>27.3172131147541</v>
+        <v>29.247540983606562</v>
       </c>
       <c r="F30" s="5">
-        <v>52.139537319116535</v>
+        <v>47.44788488738984</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C31" s="5">
-        <v>10273.810884353741</v>
+        <v>8771.4680272108853</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
-        <v>26.282274590163933</v>
+        <v>28.88065573770491</v>
       </c>
       <c r="F31" s="5">
-        <v>51.412627332444778</v>
+        <v>48.234148592567252</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C32" s="5">
-        <v>10527.189115646259</v>
+        <v>9022.1904761904771</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5">
-        <v>25.862042875157634</v>
+        <v>28.750819672131154</v>
       </c>
       <c r="F32" s="5">
-        <v>51.838274231480639</v>
+        <v>49.389827004678502</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="5">
-        <v>10775.504761904762</v>
+        <v>9269.178231292517</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
-        <v>24.214880201765446</v>
+        <v>28.513770491803275</v>
       </c>
       <c r="F33" s="5">
-        <v>49.681560724119741</v>
+        <v>50.323537839812225</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="5">
-        <v>11002.574149659864</v>
+        <v>9525.2952380952374</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
+        <v>28.340089418777936</v>
+      </c>
+      <c r="F34" s="5">
+        <v>51.39903251863646</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="5">
+        <v>9772.2829931972792</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
+        <v>27.780245901639336</v>
+      </c>
+      <c r="F35" s="5">
+        <v>51.690103688390806</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="5">
+        <v>10024.333333333334</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
+        <v>27.3172131147541</v>
+      </c>
+      <c r="F36" s="5">
+        <v>52.139537319116535</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="5">
+        <v>10273.810884353741</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
+        <v>26.282274590163933</v>
+      </c>
+      <c r="F37" s="5">
+        <v>51.412627332444778</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="5">
+        <v>10527.189115646259</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5">
+        <v>25.862042875157634</v>
+      </c>
+      <c r="F38" s="5">
+        <v>51.838274231480639</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="5">
+        <v>10775.504761904762</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
+        <v>24.214880201765446</v>
+      </c>
+      <c r="F39" s="5">
+        <v>49.681560724119741</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="5">
+        <v>11002.574149659864</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
         <v>23.163416738567733</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F40" s="5">
         <v>48.525744521242189</v>
       </c>
     </row>
